--- a/test.xlsx
+++ b/test.xlsx
@@ -507,21 +507,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine ITM: 1</t>
+          <t>Machine ITM: asdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Description 1</t>
+          <t>Machine Description asdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Machine Serial No.: 1</t>
+          <t>Machine Serial No.: asfadf</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Motor-NDE - Dataset</t>
+          <t>Dataset: 4</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -671,12 +671,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>Dataset: 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Motor-DE - Dataset</t>
+          <t>Dataset: 5</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -934,6 +934,21 @@
           <t>2</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -943,7 +958,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -958,6 +988,21 @@
           <t>930</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -970,6 +1015,21 @@
           <t>0.3a</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.2a</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.3a</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.2a</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -982,6 +1042,21 @@
           <t>4314083</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4314083</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4314083</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4314083</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -994,6 +1069,21 @@
           <t>DT3009-S1,4-M20_OSS_LF</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DT3009-S1,4-M20_OSS_LF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DT3009-S1,4-M20_OSS_LF</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DT3009-S1,4-M20_OSS_LF</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1006,6 +1096,21 @@
           <t>μm</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>μm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>μm</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>μm</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1018,6 +1123,21 @@
           <t>1400.0</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1030,6 +1150,21 @@
           <t>100.0</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1039,7 +1174,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1490</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1201,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>236.7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>198.2</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -507,21 +507,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine ITM: asdf</t>
+          <t>Machine ITM: 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Description asdf</t>
+          <t>Machine Description 1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Machine Serial No.: asfadf</t>
+          <t>Machine Serial No.: 1</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Dataset: 2</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dataset: 4</t>
+          <t>Motor-NDE - Dataset</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -671,12 +671,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Dataset: 3</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dataset: 5</t>
+          <t>Motor-DE - Dataset</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>Dataset: 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Motor-DE - Dataset</t>
+          <t>Dataset: 4</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -735,12 +735,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>Dataset: 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pump-DE - Dataset</t>
+          <t>Dataset: 5</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -958,22 +958,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1174,17 +1174,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>728</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1201,22 +1201,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>236.7</t>
+          <t>169.8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>198.2</t>
+          <t>55.3</t>
         </is>
       </c>
     </row>
